--- a/dataTest.xlsx
+++ b/dataTest.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="166">
   <si>
     <t>AERecordingMonth</t>
   </si>
@@ -438,34 +438,49 @@
     <t>MNENE - 101029 - MISSION HOSPITAL</t>
   </si>
   <si>
+    <t>15-19_yrs 20-24_yrs</t>
+  </si>
+  <si>
     <t>15-19_yrs</t>
   </si>
   <si>
-    <t>15-19_yrs 20-24_yrs</t>
+    <t>0</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>0</t>
+    <t>Mnene Hospital</t>
+  </si>
+  <si>
+    <t>Gaha Clinic</t>
   </si>
   <si>
     <t>Sandawana Clinic</t>
   </si>
   <si>
-    <t>Gaha Clinic</t>
-  </si>
-  <si>
     <t>Chiedza Clinic</t>
   </si>
   <si>
-    <t>Mnene Hospital</t>
+    <t>submission</t>
   </si>
   <si>
     <t>correction</t>
   </si>
   <si>
-    <t>submission</t>
+    <t>2025-04-03T22:40:10.996208Z</t>
+  </si>
+  <si>
+    <t>2025-03-28T08:35:41.849985Z</t>
+  </si>
+  <si>
+    <t>2025-03-26T10:37:20.887878Z</t>
+  </si>
+  <si>
+    <t>2025-03-26T07:29:17.931813Z</t>
+  </si>
+  <si>
+    <t>2025-03-24T14:07:29.895824Z</t>
   </si>
   <si>
     <t>2025-03-20T14:02:24.712091Z</t>
@@ -487,6 +502,12 @@
   </si>
   <si>
     <t>2025-03-19T14:50:03.639660Z</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>January</t>
   </si>
   <si>
     <t>February</t>
@@ -850,7 +871,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:EH8"/>
+  <dimension ref="A1:EH13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1298,7 +1319,7 @@
         <v>139</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1308,9 +1329,6 @@
       </c>
       <c r="L2">
         <v>0</v>
-      </c>
-      <c r="M2" t="s">
-        <v>140</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -1336,8 +1354,8 @@
       <c r="V2" t="s">
         <v>148</v>
       </c>
-      <c r="W2">
-        <v>11</v>
+      <c r="X2">
+        <v>20</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -1357,8 +1375,8 @@
       <c r="AE2">
         <v>0</v>
       </c>
-      <c r="AF2">
-        <v>11</v>
+      <c r="AG2">
+        <v>0</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -1375,6 +1393,9 @@
       <c r="AM2">
         <v>0</v>
       </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
       <c r="AY2">
         <v>0</v>
       </c>
@@ -1391,7 +1412,25 @@
         <v>0</v>
       </c>
       <c r="BK2">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>20</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
       </c>
       <c r="BS2">
         <v>0</v>
@@ -1403,7 +1442,7 @@
         <v>150</v>
       </c>
       <c r="BV2" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="BW2">
         <v>0</v>
@@ -1411,8 +1450,8 @@
       <c r="BX2">
         <v>0</v>
       </c>
-      <c r="BY2">
-        <v>0</v>
+      <c r="BZ2">
+        <v>20</v>
       </c>
       <c r="CB2">
         <v>0</v>
@@ -1429,9 +1468,6 @@
       <c r="CF2">
         <v>0</v>
       </c>
-      <c r="CG2">
-        <v>11</v>
-      </c>
       <c r="CJ2">
         <v>0</v>
       </c>
@@ -1468,6 +1504,9 @@
       <c r="CV2">
         <v>0</v>
       </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
       <c r="DN2">
         <v>0</v>
       </c>
@@ -1478,10 +1517,10 @@
         <v>0</v>
       </c>
       <c r="DQ2">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="DR2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="DS2">
         <v>0</v>
@@ -1490,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="DU2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="DV2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="DW2">
         <v>0</v>
@@ -1511,19 +1550,16 @@
         <v>0</v>
       </c>
       <c r="ED2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="EE2">
         <v>0</v>
       </c>
-      <c r="EF2">
-        <v>0</v>
-      </c>
       <c r="EG2">
         <v>0</v>
       </c>
       <c r="EH2">
-        <v>2025</v>
+        <v>2026</v>
       </c>
     </row>
     <row r="3" spans="1:138">
@@ -1552,7 +1588,7 @@
         <v>139</v>
       </c>
       <c r="I3">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1570,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -1585,14 +1621,14 @@
         <v>145</v>
       </c>
       <c r="V3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W3">
+        <v>21</v>
+      </c>
+      <c r="X3">
         <v>12</v>
       </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
       <c r="Z3">
         <v>0</v>
       </c>
@@ -1609,14 +1645,14 @@
         <v>0</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3">
+        <v>21</v>
+      </c>
+      <c r="AG3">
         <v>12</v>
       </c>
-      <c r="AG3">
-        <v>2</v>
-      </c>
       <c r="AI3">
         <v>0</v>
       </c>
@@ -1632,6 +1668,30 @@
       <c r="AM3">
         <v>0</v>
       </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
       <c r="AY3">
         <v>0</v>
       </c>
@@ -1647,11 +1707,32 @@
       <c r="BC3">
         <v>0</v>
       </c>
+      <c r="BD3">
+        <v>1</v>
+      </c>
+      <c r="BE3">
+        <v>1</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
       <c r="BK3">
+        <v>21</v>
+      </c>
+      <c r="BL3">
         <v>12</v>
-      </c>
-      <c r="BL3">
-        <v>2</v>
       </c>
       <c r="BM3">
         <v>0</v>
@@ -1678,7 +1759,7 @@
         <v>151</v>
       </c>
       <c r="BV3" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="BW3">
         <v>0</v>
@@ -1687,76 +1768,100 @@
         <v>0</v>
       </c>
       <c r="BY3">
+        <v>21</v>
+      </c>
+      <c r="BZ3">
         <v>12</v>
       </c>
-      <c r="BZ3">
+      <c r="CB3">
+        <v>0</v>
+      </c>
+      <c r="CC3">
+        <v>0</v>
+      </c>
+      <c r="CD3">
+        <v>0</v>
+      </c>
+      <c r="CE3">
+        <v>0</v>
+      </c>
+      <c r="CF3">
+        <v>0</v>
+      </c>
+      <c r="CJ3">
+        <v>0</v>
+      </c>
+      <c r="CK3">
+        <v>0</v>
+      </c>
+      <c r="CL3">
+        <v>0</v>
+      </c>
+      <c r="CM3">
+        <v>0</v>
+      </c>
+      <c r="CN3">
+        <v>0</v>
+      </c>
+      <c r="CO3">
+        <v>0</v>
+      </c>
+      <c r="CP3">
+        <v>0</v>
+      </c>
+      <c r="CR3">
+        <v>0</v>
+      </c>
+      <c r="CS3">
+        <v>0</v>
+      </c>
+      <c r="CT3">
+        <v>0</v>
+      </c>
+      <c r="CU3">
+        <v>0</v>
+      </c>
+      <c r="CV3">
+        <v>0</v>
+      </c>
+      <c r="CX3">
+        <v>1</v>
+      </c>
+      <c r="CZ3">
+        <v>1</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DM3">
+        <v>0</v>
+      </c>
+      <c r="DN3">
+        <v>0</v>
+      </c>
+      <c r="DO3">
+        <v>0</v>
+      </c>
+      <c r="DP3">
         <v>2</v>
       </c>
-      <c r="CB3">
-        <v>0</v>
-      </c>
-      <c r="CC3">
-        <v>0</v>
-      </c>
-      <c r="CD3">
-        <v>0</v>
-      </c>
-      <c r="CE3">
-        <v>0</v>
-      </c>
-      <c r="CF3">
-        <v>0</v>
-      </c>
-      <c r="CJ3">
-        <v>0</v>
-      </c>
-      <c r="CK3">
-        <v>0</v>
-      </c>
-      <c r="CL3">
-        <v>0</v>
-      </c>
-      <c r="CM3">
-        <v>0</v>
-      </c>
-      <c r="CN3">
-        <v>0</v>
-      </c>
-      <c r="CO3">
-        <v>0</v>
-      </c>
-      <c r="CP3">
-        <v>0</v>
-      </c>
-      <c r="CR3">
-        <v>0</v>
-      </c>
-      <c r="CS3">
-        <v>0</v>
-      </c>
-      <c r="CT3">
-        <v>0</v>
-      </c>
-      <c r="CU3">
-        <v>0</v>
-      </c>
-      <c r="CV3">
-        <v>0</v>
-      </c>
-      <c r="DN3">
-        <v>0</v>
-      </c>
-      <c r="DO3">
-        <v>0</v>
-      </c>
-      <c r="DP3">
-        <v>0</v>
-      </c>
       <c r="DQ3">
         <v>0</v>
       </c>
       <c r="DR3">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="DS3">
         <v>0</v>
@@ -1765,34 +1870,37 @@
         <v>0</v>
       </c>
       <c r="DU3">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="DV3">
         <v>0</v>
       </c>
       <c r="DW3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="DX3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="DY3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA3">
         <v>0</v>
       </c>
+      <c r="EB3" t="s">
+        <v>165</v>
+      </c>
       <c r="ED3">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="EE3">
         <v>0</v>
       </c>
       <c r="EF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG3">
         <v>0</v>
@@ -1827,7 +1935,7 @@
         <v>139</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1848,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1860,13 +1968,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="V4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -1884,10 +1995,13 @@
         <v>0</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="AG4">
+        <v>4</v>
       </c>
       <c r="AI4">
         <v>0</v>
@@ -1904,6 +2018,30 @@
       <c r="AM4">
         <v>0</v>
       </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
       <c r="AY4">
         <v>0</v>
       </c>
@@ -1919,8 +2057,32 @@
       <c r="BC4">
         <v>0</v>
       </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
       <c r="BK4">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="BL4">
+        <v>4</v>
       </c>
       <c r="BS4">
         <v>0</v>
@@ -1932,16 +2094,19 @@
         <v>152</v>
       </c>
       <c r="BV4" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="BW4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BX4">
         <v>0</v>
       </c>
       <c r="BY4">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="BZ4">
+        <v>4</v>
       </c>
       <c r="CB4">
         <v>0</v>
@@ -1994,20 +2159,38 @@
       <c r="CV4">
         <v>0</v>
       </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
       <c r="DN4">
         <v>0</v>
       </c>
-      <c r="DO4">
-        <v>0</v>
-      </c>
       <c r="DP4">
         <v>0</v>
       </c>
-      <c r="DQ4">
-        <v>0</v>
-      </c>
       <c r="DR4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="DS4">
         <v>0</v>
@@ -2016,34 +2199,34 @@
         <v>0</v>
       </c>
       <c r="DU4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="DV4">
         <v>0</v>
       </c>
       <c r="DW4">
-        <v>0</v>
-      </c>
-      <c r="DX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DY4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DZ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EA4">
         <v>0</v>
       </c>
+      <c r="EB4" t="s">
+        <v>165</v>
+      </c>
       <c r="ED4">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="EE4">
         <v>0</v>
       </c>
       <c r="EF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="EG4">
         <v>0</v>
@@ -2078,7 +2261,7 @@
         <v>139</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -2090,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -2099,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2111,16 +2294,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="V5" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="W5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -2137,28 +2320,49 @@
       <c r="AD5">
         <v>0</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
+        <v>5</v>
+      </c>
+      <c r="AG5">
+        <v>4</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>3</v>
+      </c>
+      <c r="AO5">
         <v>2</v>
       </c>
-      <c r="AF5">
-        <v>6</v>
-      </c>
-      <c r="AG5">
-        <v>7</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
         <v>0</v>
       </c>
       <c r="AY5">
@@ -2176,11 +2380,32 @@
       <c r="BC5">
         <v>0</v>
       </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
       <c r="BK5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BL5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BS5">
         <v>0</v>
@@ -2192,7 +2417,7 @@
         <v>153</v>
       </c>
       <c r="BV5" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="BW5">
         <v>0</v>
@@ -2201,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="BY5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BZ5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="CB5">
         <v>0</v>
@@ -2257,20 +2482,38 @@
       <c r="CV5">
         <v>0</v>
       </c>
+      <c r="CX5">
+        <v>3</v>
+      </c>
+      <c r="CZ5">
+        <v>2</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DH5">
+        <v>0</v>
+      </c>
+      <c r="DJ5">
+        <v>0</v>
+      </c>
+      <c r="DM5">
+        <v>0</v>
+      </c>
       <c r="DN5">
         <v>0</v>
       </c>
-      <c r="DO5">
-        <v>0</v>
-      </c>
       <c r="DP5">
         <v>0</v>
       </c>
-      <c r="DQ5">
-        <v>0</v>
-      </c>
       <c r="DR5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="DS5">
         <v>0</v>
@@ -2279,34 +2522,25 @@
         <v>0</v>
       </c>
       <c r="DU5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="DV5">
         <v>0</v>
       </c>
-      <c r="DW5">
-        <v>2</v>
-      </c>
-      <c r="DX5">
-        <v>0</v>
-      </c>
-      <c r="DY5">
+      <c r="EA5">
+        <v>0</v>
+      </c>
+      <c r="EB5" t="s">
+        <v>165</v>
+      </c>
+      <c r="ED5">
+        <v>9</v>
+      </c>
+      <c r="EE5">
+        <v>5</v>
+      </c>
+      <c r="EF5">
         <v>1</v>
-      </c>
-      <c r="DZ5">
-        <v>1</v>
-      </c>
-      <c r="EA5">
-        <v>0</v>
-      </c>
-      <c r="ED5">
-        <v>13</v>
-      </c>
-      <c r="EE5">
-        <v>0</v>
-      </c>
-      <c r="EF5">
-        <v>0</v>
       </c>
       <c r="EG5">
         <v>0</v>
@@ -2341,7 +2575,7 @@
         <v>139</v>
       </c>
       <c r="I6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2359,7 +2593,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2371,20 +2605,14 @@
         <v>0</v>
       </c>
       <c r="T6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W6">
-        <v>3</v>
-      </c>
-      <c r="X6">
         <v>2</v>
       </c>
-      <c r="Y6">
-        <v>1</v>
-      </c>
       <c r="Z6">
         <v>0</v>
       </c>
@@ -2404,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>3</v>
-      </c>
-      <c r="AG6">
         <v>2</v>
       </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
       <c r="AI6">
         <v>0</v>
       </c>
@@ -2443,13 +2665,13 @@
         <v>0</v>
       </c>
       <c r="BK6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BL6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6">
         <v>0</v>
@@ -2473,7 +2695,7 @@
         <v>154</v>
       </c>
       <c r="BV6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="BW6">
         <v>0</v>
@@ -2482,14 +2704,8 @@
         <v>0</v>
       </c>
       <c r="BY6">
-        <v>3</v>
-      </c>
-      <c r="BZ6">
         <v>2</v>
       </c>
-      <c r="CA6">
-        <v>1</v>
-      </c>
       <c r="CB6">
         <v>0</v>
       </c>
@@ -2554,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="DR6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DS6">
         <v>0</v>
@@ -2563,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="DU6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="DV6">
         <v>0</v>
@@ -2584,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="ED6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="EE6">
         <v>0</v>
@@ -2625,7 +2841,7 @@
         <v>139</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -2635,6 +2851,9 @@
       </c>
       <c r="L7">
         <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>141</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -2655,13 +2874,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V7" t="s">
         <v>149</v>
       </c>
       <c r="W7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -2679,10 +2898,10 @@
         <v>0</v>
       </c>
       <c r="AE7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -2699,30 +2918,6 @@
       <c r="AM7">
         <v>0</v>
       </c>
-      <c r="AN7">
-        <v>2</v>
-      </c>
-      <c r="AO7">
-        <v>1</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
       <c r="AY7">
         <v>0</v>
       </c>
@@ -2738,47 +2933,8 @@
       <c r="BC7">
         <v>0</v>
       </c>
-      <c r="BD7">
-        <v>1</v>
-      </c>
-      <c r="BE7">
-        <v>0</v>
-      </c>
-      <c r="BF7">
-        <v>0</v>
-      </c>
-      <c r="BG7">
-        <v>0</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
       <c r="BK7">
-        <v>12</v>
-      </c>
-      <c r="BL7">
-        <v>0</v>
-      </c>
-      <c r="BM7">
-        <v>0</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7">
-        <v>0</v>
-      </c>
-      <c r="BP7">
-        <v>0</v>
-      </c>
-      <c r="BQ7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="BS7">
         <v>0</v>
@@ -2790,7 +2946,7 @@
         <v>155</v>
       </c>
       <c r="BV7" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="BW7">
         <v>0</v>
@@ -2799,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="BY7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CB7">
         <v>0</v>
@@ -2816,6 +2972,9 @@
       <c r="CF7">
         <v>0</v>
       </c>
+      <c r="CG7">
+        <v>11</v>
+      </c>
       <c r="CJ7">
         <v>0</v>
       </c>
@@ -2852,30 +3011,6 @@
       <c r="CV7">
         <v>0</v>
       </c>
-      <c r="CX7">
-        <v>3</v>
-      </c>
-      <c r="CZ7">
-        <v>1</v>
-      </c>
-      <c r="DB7">
-        <v>0</v>
-      </c>
-      <c r="DD7">
-        <v>0</v>
-      </c>
-      <c r="DF7">
-        <v>0</v>
-      </c>
-      <c r="DH7">
-        <v>0</v>
-      </c>
-      <c r="DJ7">
-        <v>0</v>
-      </c>
-      <c r="DM7">
-        <v>0</v>
-      </c>
       <c r="DN7">
         <v>0</v>
       </c>
@@ -2883,13 +3018,13 @@
         <v>0</v>
       </c>
       <c r="DP7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DQ7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="DR7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="DS7">
         <v>0</v>
@@ -2898,40 +3033,37 @@
         <v>0</v>
       </c>
       <c r="DU7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="DV7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="DW7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="DX7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DY7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DZ7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="EA7">
         <v>0</v>
       </c>
-      <c r="EB7" t="s">
-        <v>158</v>
-      </c>
       <c r="EC7" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="ED7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="EE7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="EF7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="EG7">
         <v>0</v>
@@ -2966,7 +3098,7 @@
         <v>139</v>
       </c>
       <c r="I8">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -2984,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2996,18 +3128,15 @@
         <v>0</v>
       </c>
       <c r="T8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="W8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X8">
-        <v>5</v>
-      </c>
-      <c r="Y8">
         <v>2</v>
       </c>
       <c r="Z8">
@@ -3029,13 +3158,10 @@
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI8">
         <v>0</v>
@@ -3052,15 +3178,6 @@
       <c r="AM8">
         <v>0</v>
       </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
       <c r="AY8">
         <v>0</v>
       </c>
@@ -3077,13 +3194,13 @@
         <v>0</v>
       </c>
       <c r="BK8">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BL8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BM8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BN8">
         <v>0</v>
@@ -3107,150 +3224,1579 @@
         <v>156</v>
       </c>
       <c r="BV8" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW8">
+        <v>0</v>
+      </c>
+      <c r="BX8">
+        <v>0</v>
+      </c>
+      <c r="BY8">
+        <v>12</v>
+      </c>
+      <c r="BZ8">
+        <v>2</v>
+      </c>
+      <c r="CB8">
+        <v>0</v>
+      </c>
+      <c r="CC8">
+        <v>0</v>
+      </c>
+      <c r="CD8">
+        <v>0</v>
+      </c>
+      <c r="CE8">
+        <v>0</v>
+      </c>
+      <c r="CF8">
+        <v>0</v>
+      </c>
+      <c r="CJ8">
+        <v>0</v>
+      </c>
+      <c r="CK8">
+        <v>0</v>
+      </c>
+      <c r="CL8">
+        <v>0</v>
+      </c>
+      <c r="CM8">
+        <v>0</v>
+      </c>
+      <c r="CN8">
+        <v>0</v>
+      </c>
+      <c r="CO8">
+        <v>0</v>
+      </c>
+      <c r="CP8">
+        <v>0</v>
+      </c>
+      <c r="CR8">
+        <v>0</v>
+      </c>
+      <c r="CS8">
+        <v>0</v>
+      </c>
+      <c r="CT8">
+        <v>0</v>
+      </c>
+      <c r="CU8">
+        <v>0</v>
+      </c>
+      <c r="CV8">
+        <v>0</v>
+      </c>
+      <c r="DN8">
+        <v>0</v>
+      </c>
+      <c r="DO8">
+        <v>0</v>
+      </c>
+      <c r="DP8">
+        <v>0</v>
+      </c>
+      <c r="DQ8">
+        <v>0</v>
+      </c>
+      <c r="DR8">
+        <v>14</v>
+      </c>
+      <c r="DS8">
+        <v>0</v>
+      </c>
+      <c r="DT8">
+        <v>0</v>
+      </c>
+      <c r="DU8">
+        <v>14</v>
+      </c>
+      <c r="DV8">
+        <v>0</v>
+      </c>
+      <c r="DW8">
+        <v>0</v>
+      </c>
+      <c r="DX8">
+        <v>0</v>
+      </c>
+      <c r="DY8">
+        <v>0</v>
+      </c>
+      <c r="DZ8">
+        <v>0</v>
+      </c>
+      <c r="EA8">
+        <v>0</v>
+      </c>
+      <c r="ED8">
+        <v>14</v>
+      </c>
+      <c r="EE8">
+        <v>0</v>
+      </c>
+      <c r="EF8">
+        <v>0</v>
+      </c>
+      <c r="EG8">
+        <v>0</v>
+      </c>
+      <c r="EH8">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="9" spans="1:138">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>141</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9" t="s">
+        <v>147</v>
+      </c>
+      <c r="V9" t="s">
+        <v>149</v>
+      </c>
+      <c r="W9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>3</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0</v>
+      </c>
+      <c r="AL9">
+        <v>0</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
+      </c>
+      <c r="AZ9">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>0</v>
+      </c>
+      <c r="BB9">
+        <v>0</v>
+      </c>
+      <c r="BC9">
+        <v>0</v>
+      </c>
+      <c r="BK9">
+        <v>3</v>
+      </c>
+      <c r="BS9">
+        <v>0</v>
+      </c>
+      <c r="BT9">
+        <v>0</v>
+      </c>
+      <c r="BU9" t="s">
         <v>157</v>
       </c>
-      <c r="BW8">
-        <v>0</v>
-      </c>
-      <c r="BX8">
-        <v>0</v>
-      </c>
-      <c r="BY8">
-        <v>0</v>
-      </c>
-      <c r="BZ8">
-        <v>0</v>
-      </c>
-      <c r="CA8">
-        <v>0</v>
-      </c>
-      <c r="CB8">
-        <v>0</v>
-      </c>
-      <c r="CC8">
-        <v>0</v>
-      </c>
-      <c r="CD8">
-        <v>0</v>
-      </c>
-      <c r="CE8">
-        <v>0</v>
-      </c>
-      <c r="CF8">
-        <v>0</v>
-      </c>
-      <c r="CG8">
+      <c r="BV9" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW9">
+        <v>0</v>
+      </c>
+      <c r="BX9">
+        <v>0</v>
+      </c>
+      <c r="BY9">
+        <v>3</v>
+      </c>
+      <c r="CB9">
+        <v>0</v>
+      </c>
+      <c r="CC9">
+        <v>0</v>
+      </c>
+      <c r="CD9">
+        <v>0</v>
+      </c>
+      <c r="CE9">
+        <v>0</v>
+      </c>
+      <c r="CF9">
+        <v>0</v>
+      </c>
+      <c r="CJ9">
+        <v>0</v>
+      </c>
+      <c r="CK9">
+        <v>0</v>
+      </c>
+      <c r="CL9">
+        <v>0</v>
+      </c>
+      <c r="CM9">
+        <v>0</v>
+      </c>
+      <c r="CN9">
+        <v>0</v>
+      </c>
+      <c r="CO9">
+        <v>0</v>
+      </c>
+      <c r="CP9">
+        <v>0</v>
+      </c>
+      <c r="CR9">
+        <v>0</v>
+      </c>
+      <c r="CS9">
+        <v>0</v>
+      </c>
+      <c r="CT9">
+        <v>0</v>
+      </c>
+      <c r="CU9">
+        <v>0</v>
+      </c>
+      <c r="CV9">
+        <v>0</v>
+      </c>
+      <c r="DN9">
+        <v>0</v>
+      </c>
+      <c r="DO9">
+        <v>0</v>
+      </c>
+      <c r="DP9">
+        <v>0</v>
+      </c>
+      <c r="DQ9">
+        <v>0</v>
+      </c>
+      <c r="DR9">
+        <v>3</v>
+      </c>
+      <c r="DS9">
+        <v>0</v>
+      </c>
+      <c r="DT9">
+        <v>0</v>
+      </c>
+      <c r="DU9">
+        <v>3</v>
+      </c>
+      <c r="DV9">
+        <v>0</v>
+      </c>
+      <c r="DW9">
+        <v>0</v>
+      </c>
+      <c r="DX9">
+        <v>0</v>
+      </c>
+      <c r="DY9">
+        <v>0</v>
+      </c>
+      <c r="DZ9">
+        <v>0</v>
+      </c>
+      <c r="EA9">
+        <v>0</v>
+      </c>
+      <c r="ED9">
+        <v>3</v>
+      </c>
+      <c r="EE9">
+        <v>0</v>
+      </c>
+      <c r="EF9">
+        <v>0</v>
+      </c>
+      <c r="EG9">
+        <v>0</v>
+      </c>
+      <c r="EH9">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="10" spans="1:138">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>139</v>
+      </c>
+      <c r="I10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>140</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10" t="s">
+        <v>144</v>
+      </c>
+      <c r="V10" t="s">
+        <v>149</v>
+      </c>
+      <c r="W10">
+        <v>6</v>
+      </c>
+      <c r="X10">
+        <v>7</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>6</v>
+      </c>
+      <c r="AG10">
+        <v>7</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>0</v>
+      </c>
+      <c r="AZ10">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>0</v>
+      </c>
+      <c r="BB10">
+        <v>0</v>
+      </c>
+      <c r="BC10">
+        <v>0</v>
+      </c>
+      <c r="BK10">
+        <v>6</v>
+      </c>
+      <c r="BL10">
+        <v>7</v>
+      </c>
+      <c r="BS10">
+        <v>0</v>
+      </c>
+      <c r="BT10">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="s">
+        <v>158</v>
+      </c>
+      <c r="BV10" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW10">
+        <v>0</v>
+      </c>
+      <c r="BX10">
+        <v>0</v>
+      </c>
+      <c r="BY10">
+        <v>6</v>
+      </c>
+      <c r="BZ10">
+        <v>7</v>
+      </c>
+      <c r="CB10">
+        <v>0</v>
+      </c>
+      <c r="CC10">
+        <v>0</v>
+      </c>
+      <c r="CD10">
+        <v>0</v>
+      </c>
+      <c r="CE10">
+        <v>0</v>
+      </c>
+      <c r="CF10">
+        <v>0</v>
+      </c>
+      <c r="CJ10">
+        <v>0</v>
+      </c>
+      <c r="CK10">
+        <v>0</v>
+      </c>
+      <c r="CL10">
+        <v>0</v>
+      </c>
+      <c r="CM10">
+        <v>0</v>
+      </c>
+      <c r="CN10">
+        <v>0</v>
+      </c>
+      <c r="CO10">
+        <v>0</v>
+      </c>
+      <c r="CP10">
+        <v>0</v>
+      </c>
+      <c r="CR10">
+        <v>0</v>
+      </c>
+      <c r="CS10">
+        <v>0</v>
+      </c>
+      <c r="CT10">
+        <v>0</v>
+      </c>
+      <c r="CU10">
+        <v>0</v>
+      </c>
+      <c r="CV10">
+        <v>0</v>
+      </c>
+      <c r="DN10">
+        <v>0</v>
+      </c>
+      <c r="DO10">
+        <v>0</v>
+      </c>
+      <c r="DP10">
+        <v>0</v>
+      </c>
+      <c r="DQ10">
+        <v>0</v>
+      </c>
+      <c r="DR10">
+        <v>13</v>
+      </c>
+      <c r="DS10">
+        <v>0</v>
+      </c>
+      <c r="DT10">
+        <v>0</v>
+      </c>
+      <c r="DU10">
+        <v>13</v>
+      </c>
+      <c r="DV10">
+        <v>0</v>
+      </c>
+      <c r="DW10">
+        <v>2</v>
+      </c>
+      <c r="DX10">
+        <v>0</v>
+      </c>
+      <c r="DY10">
+        <v>1</v>
+      </c>
+      <c r="DZ10">
+        <v>1</v>
+      </c>
+      <c r="EA10">
+        <v>0</v>
+      </c>
+      <c r="ED10">
+        <v>13</v>
+      </c>
+      <c r="EE10">
+        <v>0</v>
+      </c>
+      <c r="EF10">
+        <v>0</v>
+      </c>
+      <c r="EG10">
+        <v>0</v>
+      </c>
+      <c r="EH10">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="11" spans="1:138">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11" t="s">
+        <v>147</v>
+      </c>
+      <c r="V11" t="s">
+        <v>148</v>
+      </c>
+      <c r="W11">
+        <v>3</v>
+      </c>
+      <c r="X11">
+        <v>2</v>
+      </c>
+      <c r="Y11">
+        <v>1</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>3</v>
+      </c>
+      <c r="AG11">
+        <v>2</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AY11">
+        <v>0</v>
+      </c>
+      <c r="AZ11">
+        <v>0</v>
+      </c>
+      <c r="BA11">
+        <v>0</v>
+      </c>
+      <c r="BB11">
+        <v>0</v>
+      </c>
+      <c r="BC11">
+        <v>0</v>
+      </c>
+      <c r="BK11">
+        <v>3</v>
+      </c>
+      <c r="BL11">
+        <v>2</v>
+      </c>
+      <c r="BM11">
+        <v>1</v>
+      </c>
+      <c r="BN11">
+        <v>0</v>
+      </c>
+      <c r="BO11">
+        <v>0</v>
+      </c>
+      <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
+        <v>0</v>
+      </c>
+      <c r="BT11">
+        <v>0</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>159</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW11">
+        <v>0</v>
+      </c>
+      <c r="BX11">
+        <v>0</v>
+      </c>
+      <c r="BY11">
+        <v>3</v>
+      </c>
+      <c r="BZ11">
+        <v>2</v>
+      </c>
+      <c r="CA11">
+        <v>1</v>
+      </c>
+      <c r="CB11">
+        <v>0</v>
+      </c>
+      <c r="CC11">
+        <v>0</v>
+      </c>
+      <c r="CD11">
+        <v>0</v>
+      </c>
+      <c r="CE11">
+        <v>0</v>
+      </c>
+      <c r="CF11">
+        <v>0</v>
+      </c>
+      <c r="CJ11">
+        <v>0</v>
+      </c>
+      <c r="CK11">
+        <v>0</v>
+      </c>
+      <c r="CL11">
+        <v>0</v>
+      </c>
+      <c r="CM11">
+        <v>0</v>
+      </c>
+      <c r="CN11">
+        <v>0</v>
+      </c>
+      <c r="CO11">
+        <v>0</v>
+      </c>
+      <c r="CP11">
+        <v>0</v>
+      </c>
+      <c r="CR11">
+        <v>0</v>
+      </c>
+      <c r="CS11">
+        <v>0</v>
+      </c>
+      <c r="CT11">
+        <v>0</v>
+      </c>
+      <c r="CU11">
+        <v>0</v>
+      </c>
+      <c r="CV11">
+        <v>0</v>
+      </c>
+      <c r="DN11">
+        <v>0</v>
+      </c>
+      <c r="DO11">
+        <v>0</v>
+      </c>
+      <c r="DP11">
+        <v>0</v>
+      </c>
+      <c r="DQ11">
+        <v>0</v>
+      </c>
+      <c r="DR11">
+        <v>6</v>
+      </c>
+      <c r="DS11">
+        <v>0</v>
+      </c>
+      <c r="DT11">
+        <v>0</v>
+      </c>
+      <c r="DU11">
+        <v>6</v>
+      </c>
+      <c r="DV11">
+        <v>0</v>
+      </c>
+      <c r="DW11">
+        <v>0</v>
+      </c>
+      <c r="DX11">
+        <v>0</v>
+      </c>
+      <c r="DY11">
+        <v>0</v>
+      </c>
+      <c r="DZ11">
+        <v>0</v>
+      </c>
+      <c r="EA11">
+        <v>0</v>
+      </c>
+      <c r="ED11">
+        <v>6</v>
+      </c>
+      <c r="EE11">
+        <v>0</v>
+      </c>
+      <c r="EF11">
+        <v>0</v>
+      </c>
+      <c r="EG11">
+        <v>0</v>
+      </c>
+      <c r="EH11">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:138">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12" t="s">
+        <v>144</v>
+      </c>
+      <c r="V12" t="s">
+        <v>148</v>
+      </c>
+      <c r="W12">
         <v>10</v>
       </c>
-      <c r="CH8">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>12</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>2</v>
+      </c>
+      <c r="AO12">
+        <v>1</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AY12">
+        <v>0</v>
+      </c>
+      <c r="AZ12">
+        <v>0</v>
+      </c>
+      <c r="BA12">
+        <v>0</v>
+      </c>
+      <c r="BB12">
+        <v>0</v>
+      </c>
+      <c r="BC12">
+        <v>0</v>
+      </c>
+      <c r="BD12">
+        <v>1</v>
+      </c>
+      <c r="BE12">
+        <v>0</v>
+      </c>
+      <c r="BF12">
+        <v>0</v>
+      </c>
+      <c r="BG12">
+        <v>0</v>
+      </c>
+      <c r="BH12">
+        <v>0</v>
+      </c>
+      <c r="BI12">
+        <v>0</v>
+      </c>
+      <c r="BJ12">
+        <v>0</v>
+      </c>
+      <c r="BK12">
+        <v>12</v>
+      </c>
+      <c r="BL12">
+        <v>0</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>0</v>
+      </c>
+      <c r="BO12">
+        <v>0</v>
+      </c>
+      <c r="BP12">
+        <v>0</v>
+      </c>
+      <c r="BQ12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>0</v>
+      </c>
+      <c r="BT12">
+        <v>0</v>
+      </c>
+      <c r="BU12" t="s">
+        <v>160</v>
+      </c>
+      <c r="BV12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW12">
+        <v>0</v>
+      </c>
+      <c r="BX12">
+        <v>0</v>
+      </c>
+      <c r="BY12">
+        <v>12</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>0</v>
+      </c>
+      <c r="CD12">
+        <v>0</v>
+      </c>
+      <c r="CE12">
+        <v>0</v>
+      </c>
+      <c r="CF12">
+        <v>0</v>
+      </c>
+      <c r="CJ12">
+        <v>0</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+      <c r="CL12">
+        <v>0</v>
+      </c>
+      <c r="CM12">
+        <v>0</v>
+      </c>
+      <c r="CN12">
+        <v>0</v>
+      </c>
+      <c r="CO12">
+        <v>0</v>
+      </c>
+      <c r="CP12">
+        <v>0</v>
+      </c>
+      <c r="CR12">
+        <v>0</v>
+      </c>
+      <c r="CS12">
+        <v>0</v>
+      </c>
+      <c r="CT12">
+        <v>0</v>
+      </c>
+      <c r="CU12">
+        <v>0</v>
+      </c>
+      <c r="CV12">
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <v>3</v>
+      </c>
+      <c r="CZ12">
+        <v>1</v>
+      </c>
+      <c r="DB12">
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <v>0</v>
+      </c>
+      <c r="DF12">
+        <v>0</v>
+      </c>
+      <c r="DH12">
+        <v>0</v>
+      </c>
+      <c r="DJ12">
+        <v>0</v>
+      </c>
+      <c r="DM12">
+        <v>0</v>
+      </c>
+      <c r="DN12">
+        <v>0</v>
+      </c>
+      <c r="DO12">
+        <v>0</v>
+      </c>
+      <c r="DP12">
+        <v>1</v>
+      </c>
+      <c r="DQ12">
+        <v>0</v>
+      </c>
+      <c r="DR12">
+        <v>12</v>
+      </c>
+      <c r="DS12">
+        <v>0</v>
+      </c>
+      <c r="DT12">
+        <v>0</v>
+      </c>
+      <c r="DU12">
+        <v>12</v>
+      </c>
+      <c r="DV12">
+        <v>0</v>
+      </c>
+      <c r="DW12">
+        <v>6</v>
+      </c>
+      <c r="DX12">
+        <v>1</v>
+      </c>
+      <c r="DY12">
+        <v>2</v>
+      </c>
+      <c r="DZ12">
+        <v>2</v>
+      </c>
+      <c r="EA12">
+        <v>0</v>
+      </c>
+      <c r="EB12" t="s">
+        <v>165</v>
+      </c>
+      <c r="ED12">
+        <v>12</v>
+      </c>
+      <c r="EE12">
+        <v>3</v>
+      </c>
+      <c r="EF12">
+        <v>1</v>
+      </c>
+      <c r="EG12">
+        <v>0</v>
+      </c>
+      <c r="EH12">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="13" spans="1:138">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13">
+        <v>18</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>146</v>
+      </c>
+      <c r="V13" t="s">
+        <v>148</v>
+      </c>
+      <c r="W13">
+        <v>10</v>
+      </c>
+      <c r="X13">
         <v>5</v>
       </c>
-      <c r="CI8">
+      <c r="Y13">
         <v>2</v>
       </c>
-      <c r="CJ8">
-        <v>0</v>
-      </c>
-      <c r="CK8">
-        <v>0</v>
-      </c>
-      <c r="CL8">
-        <v>0</v>
-      </c>
-      <c r="CM8">
-        <v>0</v>
-      </c>
-      <c r="CN8">
-        <v>0</v>
-      </c>
-      <c r="CO8">
-        <v>0</v>
-      </c>
-      <c r="CP8">
-        <v>0</v>
-      </c>
-      <c r="CQ8">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>0</v>
+      </c>
+      <c r="AX13">
+        <v>0</v>
+      </c>
+      <c r="AY13">
+        <v>0</v>
+      </c>
+      <c r="AZ13">
+        <v>0</v>
+      </c>
+      <c r="BA13">
+        <v>0</v>
+      </c>
+      <c r="BB13">
+        <v>0</v>
+      </c>
+      <c r="BC13">
+        <v>0</v>
+      </c>
+      <c r="BK13">
+        <v>10</v>
+      </c>
+      <c r="BL13">
+        <v>5</v>
+      </c>
+      <c r="BM13">
+        <v>3</v>
+      </c>
+      <c r="BN13">
+        <v>0</v>
+      </c>
+      <c r="BO13">
+        <v>0</v>
+      </c>
+      <c r="BP13">
+        <v>0</v>
+      </c>
+      <c r="BQ13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>0</v>
+      </c>
+      <c r="BT13">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="s">
+        <v>161</v>
+      </c>
+      <c r="BV13" t="s">
+        <v>164</v>
+      </c>
+      <c r="BW13">
+        <v>0</v>
+      </c>
+      <c r="BX13">
+        <v>0</v>
+      </c>
+      <c r="BY13">
+        <v>0</v>
+      </c>
+      <c r="BZ13">
+        <v>0</v>
+      </c>
+      <c r="CA13">
+        <v>0</v>
+      </c>
+      <c r="CB13">
+        <v>0</v>
+      </c>
+      <c r="CC13">
+        <v>0</v>
+      </c>
+      <c r="CD13">
+        <v>0</v>
+      </c>
+      <c r="CE13">
+        <v>0</v>
+      </c>
+      <c r="CF13">
+        <v>0</v>
+      </c>
+      <c r="CG13">
+        <v>10</v>
+      </c>
+      <c r="CH13">
+        <v>5</v>
+      </c>
+      <c r="CI13">
+        <v>2</v>
+      </c>
+      <c r="CJ13">
+        <v>0</v>
+      </c>
+      <c r="CK13">
+        <v>0</v>
+      </c>
+      <c r="CL13">
+        <v>0</v>
+      </c>
+      <c r="CM13">
+        <v>0</v>
+      </c>
+      <c r="CN13">
+        <v>0</v>
+      </c>
+      <c r="CO13">
+        <v>0</v>
+      </c>
+      <c r="CP13">
+        <v>0</v>
+      </c>
+      <c r="CQ13">
         <v>1</v>
       </c>
-      <c r="CR8">
-        <v>0</v>
-      </c>
-      <c r="CS8">
-        <v>0</v>
-      </c>
-      <c r="CT8">
-        <v>0</v>
-      </c>
-      <c r="CU8">
-        <v>0</v>
-      </c>
-      <c r="CV8">
-        <v>0</v>
-      </c>
-      <c r="CW8">
-        <v>0</v>
-      </c>
-      <c r="CY8">
-        <v>0</v>
-      </c>
-      <c r="DA8">
-        <v>0</v>
-      </c>
-      <c r="DN8">
-        <v>0</v>
-      </c>
-      <c r="DO8">
-        <v>0</v>
-      </c>
-      <c r="DP8">
-        <v>0</v>
-      </c>
-      <c r="DQ8">
+      <c r="CR13">
+        <v>0</v>
+      </c>
+      <c r="CS13">
+        <v>0</v>
+      </c>
+      <c r="CT13">
+        <v>0</v>
+      </c>
+      <c r="CU13">
+        <v>0</v>
+      </c>
+      <c r="CV13">
+        <v>0</v>
+      </c>
+      <c r="CW13">
+        <v>0</v>
+      </c>
+      <c r="CY13">
+        <v>0</v>
+      </c>
+      <c r="DA13">
+        <v>0</v>
+      </c>
+      <c r="DN13">
+        <v>0</v>
+      </c>
+      <c r="DO13">
+        <v>0</v>
+      </c>
+      <c r="DP13">
+        <v>0</v>
+      </c>
+      <c r="DQ13">
         <v>18</v>
       </c>
-      <c r="DR8">
+      <c r="DR13">
         <v>18</v>
       </c>
-      <c r="DS8">
-        <v>0</v>
-      </c>
-      <c r="DT8">
+      <c r="DS13">
+        <v>0</v>
+      </c>
+      <c r="DT13">
         <v>1</v>
       </c>
-      <c r="DU8">
-        <v>0</v>
-      </c>
-      <c r="DV8">
+      <c r="DU13">
+        <v>0</v>
+      </c>
+      <c r="DV13">
         <v>17</v>
       </c>
-      <c r="DW8">
-        <v>0</v>
-      </c>
-      <c r="DX8">
-        <v>0</v>
-      </c>
-      <c r="DY8">
-        <v>0</v>
-      </c>
-      <c r="DZ8">
-        <v>0</v>
-      </c>
-      <c r="EA8">
-        <v>0</v>
-      </c>
-      <c r="ED8">
-        <v>0</v>
-      </c>
-      <c r="EE8">
-        <v>0</v>
-      </c>
-      <c r="EF8">
-        <v>0</v>
-      </c>
-      <c r="EG8">
-        <v>0</v>
-      </c>
-      <c r="EH8">
+      <c r="DW13">
+        <v>0</v>
+      </c>
+      <c r="DX13">
+        <v>0</v>
+      </c>
+      <c r="DY13">
+        <v>0</v>
+      </c>
+      <c r="DZ13">
+        <v>0</v>
+      </c>
+      <c r="EA13">
+        <v>0</v>
+      </c>
+      <c r="EC13" t="s">
+        <v>165</v>
+      </c>
+      <c r="ED13">
+        <v>0</v>
+      </c>
+      <c r="EE13">
+        <v>0</v>
+      </c>
+      <c r="EF13">
+        <v>0</v>
+      </c>
+      <c r="EG13">
+        <v>0</v>
+      </c>
+      <c r="EH13">
         <v>2025</v>
       </c>
     </row>
